--- a/03_Tag 03/PA-Arbeitszeiten_0.3_Cvetkovic_David.xlsx
+++ b/03_Tag 03/PA-Arbeitszeiten_0.3_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\03_Tag 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506035BB-E2B4-4EA5-83A5-0B150C370313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11D401-6017-4206-820D-DE376B5BED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="6">
-        <v>0.47569444444444442</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>

--- a/03_Tag 03/PA-Arbeitszeiten_0.3_Cvetkovic_David.xlsx
+++ b/03_Tag 03/PA-Arbeitszeiten_0.3_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\03_Tag 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11D401-6017-4206-820D-DE376B5BED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C6DC2-22EE-4BE2-8E56-952C39A5BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,9 +548,15 @@
       <c r="D7" s="6">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="6">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.33263888888888887</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
